--- a/excel/protocol/ishod_Full.xlsx
+++ b/excel/protocol/ishod_Full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24120" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19320" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="рабочий" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">рабочий!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">рабочий_Очередной!$A$1:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="204">
   <si>
     <t>Протокол проверки знаний № ________</t>
   </si>
@@ -350,15 +350,6 @@
     <t xml:space="preserve">Начальник смены </t>
   </si>
   <si>
-    <t>Дежурный машинист гидроагрегатов</t>
-  </si>
-  <si>
-    <t>Дежурный электромонтер по обслуживанию подстанции</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Дежурный электромонтер по обслуживанию подстанции</t>
-  </si>
-  <si>
     <t>Электромонтер главного щита управления</t>
   </si>
   <si>
@@ -539,9 +530,6 @@
     <t>Ведущий инженер СНТБ</t>
   </si>
   <si>
-    <t>провела проверку знаний ПТБ, ПТЭ, ППБ и других нормативных документов стандартов:</t>
-  </si>
-  <si>
     <t>Результаты проверки нормативных документов</t>
   </si>
   <si>
@@ -557,56 +545,99 @@
     <t>Правила устройства и безопасной эксплуатации сосудов, работающих под давлением</t>
   </si>
   <si>
+    <t>Тестирование в АСОП</t>
+  </si>
+  <si>
+    <t>ПОТ, Промышленная безопасность</t>
+  </si>
+  <si>
+    <t>(дата)</t>
+  </si>
+  <si>
+    <t>(оценка)</t>
+  </si>
+  <si>
+    <t>(подпись СОТ)</t>
+  </si>
+  <si>
+    <t>ПТЭ, ППБ</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Указывается для оперативного руководителя, оперативного персонала</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Подписывается, если учавствует в работе комиссии</t>
+  </si>
+  <si>
+    <t>начальник_Очередной</t>
+  </si>
+  <si>
+    <t>рабочий_Очередной</t>
+  </si>
+  <si>
+    <t>Экзаменационная комиссия</t>
+  </si>
+  <si>
+    <t>по оперативной службе</t>
+  </si>
+  <si>
+    <t>в составе:</t>
+  </si>
+  <si>
+    <t>представитель Ростехнадзора РФ**</t>
+  </si>
+  <si>
+    <t>Место работы</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Дата предыдущей проверки</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Группа по электробезопасности</t>
+  </si>
+  <si>
+    <t>Продолжительность дублирования*</t>
+  </si>
+  <si>
+    <t>Допущен к работе в качестве</t>
+  </si>
+  <si>
+    <t>Дата следующей проверки</t>
+  </si>
+  <si>
+    <t>провела проверку знаний ПТБ, ПТЭ, ППБ и других нормативных документов:</t>
+  </si>
+  <si>
+    <t>Проверяемый</t>
+  </si>
+  <si>
+    <t>Нормативные документы по промышленной безопасности и экологии)
+(Протокол № ______ от "____________")</t>
+  </si>
+  <si>
     <t>Нормативные документы по промышленной безопасности и экологии
-(Протокол № ______ от "____________"</t>
-  </si>
-  <si>
-    <t>Продолжительность дублирования*:</t>
-  </si>
-  <si>
-    <t>Допущен к работе в качестве:</t>
-  </si>
-  <si>
-    <t>Дата следующей проверки:</t>
-  </si>
-  <si>
-    <t>Представитель Ростехнадзора РФ**</t>
-  </si>
-  <si>
-    <t>Тестирование в АСОП</t>
-  </si>
-  <si>
-    <t>ПОТ, Промышленная безопасность</t>
-  </si>
-  <si>
-    <t>(дата)</t>
-  </si>
-  <si>
-    <t>(оценка)</t>
-  </si>
-  <si>
-    <t>(подпись СОТ)</t>
-  </si>
-  <si>
-    <t>ПТЭ, ППБ</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Указывается для оперативного руководителя, оперативного персонала</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>Подписывается, если учавствует в работе комиссии</t>
-  </si>
-  <si>
-    <t>начальник_Очередной</t>
-  </si>
-  <si>
-    <t>рабочий_Очередной</t>
+(Протокол № ______ от "____________")</t>
+  </si>
+  <si>
+    <t>Машинист гидроагрегатов</t>
+  </si>
+  <si>
+    <t>Электромонтер по обслуживанию подстанции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Электромонтер по обслуживанию подстанции</t>
   </si>
 </sst>
 </file>
@@ -857,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,9 +918,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,40 +932,34 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -946,19 +968,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,47 +1028,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,167 +1357,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="11" t="s">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1503,100 +1531,100 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1611,32 +1639,32 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1651,153 +1679,153 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="I31" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="23"/>
+      <c r="I33" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="23"/>
+      <c r="I34" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J35" s="23"/>
+      <c r="I35" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" s="23"/>
+      <c r="I36" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I37" s="13"/>
@@ -1808,53 +1836,21 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:H39"/>
@@ -1871,6 +1867,38 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
@@ -1898,167 +1926,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -2072,100 +2100,100 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2180,32 +2208,32 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2220,154 +2248,154 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="I31" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="23"/>
+      <c r="I33" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J34" s="23"/>
+      <c r="I34" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J35" s="23"/>
+      <c r="I35" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36" s="23"/>
+      <c r="I36" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I37" s="13"/>
@@ -2378,44 +2406,34 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:J19"/>
@@ -2428,19 +2446,29 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
@@ -2454,8 +2482,8 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,707 +2498,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="11" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="A29" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="A30" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="A31" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="A32" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="21" t="str">
+        <f>C5</f>
+        <v>главный инженер:</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="23"/>
+      <c r="I36" s="37" t="str">
+        <f>CONCATENATE("/",J5,"/")</f>
+        <v>/Деев А. П./</v>
+      </c>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="21" t="str">
+        <f>C6</f>
+        <v>заместитель главного инженера по эксплуатации:</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J38" s="23"/>
+      <c r="I38" s="37" t="str">
+        <f>CONCATENATE("/",J6,"/")</f>
+        <v>/Алексеев В. Г./</v>
+      </c>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="21" t="str">
+        <f>C7</f>
+        <v>начальник ОС:</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J39" s="23"/>
+      <c r="I39" s="37" t="str">
+        <f>CONCATENATE("/",J7,"/")</f>
+        <v>/Цирлин С. Л./</v>
+      </c>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="21" t="str">
+        <f>C8</f>
+        <v>заместитель начальника ОС:</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J40" s="23"/>
+      <c r="I40" s="37" t="str">
+        <f>CONCATENATE("/",J8,"/")</f>
+        <v>/Балабанов В. В./</v>
+      </c>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="21" t="str">
+        <f>C9</f>
+        <v>начальник СНТБ:</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="23"/>
+      <c r="I41" s="37" t="str">
+        <f>CONCATENATE("/",J9,"/")</f>
+        <v>/Могильников Ю. Д./</v>
+      </c>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="B42" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
+      <c r="A46" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="A47" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="A49" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+        <v>179</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+        <v>181</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
+  <mergeCells count="77">
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="A18:B18"/>
@@ -3184,48 +3239,34 @@
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3236,8 +3277,8 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,707 +3293,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="11" t="s">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="11" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="A29" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="A30" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="A31" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="A32" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="21" t="str">
+        <f>C5</f>
+        <v>заместитель главного инженера по эксплуатации:</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="23"/>
+      <c r="I36" s="37" t="str">
+        <f>CONCATENATE("/",J5,"/")</f>
+        <v>/Алексеев В. Г./</v>
+      </c>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="21" t="str">
+        <f>C6</f>
+        <v>начальник ОС:</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="J38" s="15"/>
+      <c r="I38" s="37" t="str">
+        <f>CONCATENATE("/",J6,"/")</f>
+        <v>/Цирлин С. Л./</v>
+      </c>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="21" t="str">
+        <f>C7</f>
+        <v>заместитель начальника ОС:</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39" s="15"/>
+      <c r="I39" s="37" t="str">
+        <f>CONCATENATE("/",J7,"/")</f>
+        <v>/Балабанов В. В./</v>
+      </c>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="21" t="str">
+        <f>C8</f>
+        <v>начальник СНТБ:</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="15"/>
+      <c r="I40" s="37" t="str">
+        <f>CONCATENATE("/",J8,"/")</f>
+        <v>/Могильников Ю. Д./</v>
+      </c>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="21" t="str">
+        <f>C9</f>
+        <v>ведущий инженер СНТБ:</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="23"/>
+      <c r="I41" s="37" t="str">
+        <f>CONCATENATE("/",J9,"/")</f>
+        <v>/Попов А. А./</v>
+      </c>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="B42" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
+      <c r="A46" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="A47" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="A49" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+        <v>179</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+        <v>181</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
+  <mergeCells count="77">
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="A18:B18"/>
@@ -3966,45 +4034,34 @@
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4012,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,10 +4088,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
@@ -4043,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -4052,10 +4109,10 @@
         <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4072,19 +4129,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4092,7 +4149,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -4101,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -4110,10 +4167,10 @@
         <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4139,10 +4196,10 @@
         <v>106</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4168,10 +4225,10 @@
         <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4188,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -4197,10 +4254,10 @@
         <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4208,7 +4265,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
@@ -4217,7 +4274,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
@@ -4226,10 +4283,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4237,7 +4294,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -4255,10 +4312,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4284,10 +4341,10 @@
         <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4313,10 +4370,10 @@
         <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4324,7 +4381,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>57</v>
@@ -4333,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -4342,15 +4399,15 @@
         <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>48</v>
@@ -4371,10 +4428,10 @@
         <v>106</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4382,7 +4439,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>88</v>
@@ -4391,27 +4448,27 @@
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -4420,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
@@ -4429,10 +4486,10 @@
         <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4449,19 +4506,19 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,7 +4526,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -4484,13 +4541,13 @@
         <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,19 +4564,19 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4536,19 +4593,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4565,19 +4622,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4600,18 +4657,18 @@
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -4623,19 +4680,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,13 +4715,13 @@
         <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4681,19 +4738,19 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4710,19 +4767,19 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,19 +4796,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4768,19 +4825,19 @@
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4788,7 +4845,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>72</v>
@@ -4803,13 +4860,13 @@
         <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4832,21 +4889,21 @@
         <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
@@ -4855,19 +4912,19 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4875,7 +4932,7 @@
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
@@ -4890,13 +4947,13 @@
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>80</v>
@@ -4919,13 +4976,13 @@
         <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4948,13 +5005,13 @@
         <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4962,7 +5019,7 @@
         <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>72</v>
@@ -4977,13 +5034,13 @@
         <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,19 +5057,19 @@
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5020,7 +5077,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -5035,13 +5092,13 @@
         <v>37</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5064,13 +5121,13 @@
         <v>52</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,19 +5144,19 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5107,7 +5164,7 @@
         <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>96</v>
@@ -5116,19 +5173,19 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5136,7 +5193,7 @@
         <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>98</v>
@@ -5151,13 +5208,13 @@
         <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5180,13 +5237,13 @@
         <v>37</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5209,13 +5266,13 @@
         <v>37</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
